--- a/RECURSOS/tablespaces.xlsx
+++ b/RECURSOS/tablespaces.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\virtualGYM\RECURSOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73DB0CD-6341-4DC1-8348-5D4547AA9F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E44533-49E6-4F30-ADAF-C88356E76DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6D28EBDB-7544-4C8E-B6B6-4D331AF1D67D}"/>
   </bookViews>
@@ -35,17 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>Tabla</t>
   </si>
   <si>
-    <t>Bytes/registro</t>
-  </si>
-  <si>
-    <t>Bytes</t>
-  </si>
-  <si>
     <t>GIMNASIO</t>
   </si>
   <si>
@@ -112,9 +106,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Gigabytes</t>
-  </si>
-  <si>
     <t>Modulo</t>
   </si>
   <si>
@@ -163,15 +154,9 @@
     <t>tbs_indices</t>
   </si>
   <si>
-    <t>Bytes asignados</t>
-  </si>
-  <si>
     <t>Registros</t>
   </si>
   <si>
-    <t>Bytes totales</t>
-  </si>
-  <si>
     <t>Carga inicial</t>
   </si>
   <si>
@@ -179,6 +164,24 @@
   </si>
   <si>
     <t>Carga despues de 1 año</t>
+  </si>
+  <si>
+    <t>Común</t>
+  </si>
+  <si>
+    <t>MB asignados</t>
+  </si>
+  <si>
+    <t>B/registro</t>
+  </si>
+  <si>
+    <t>B totales</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>GB</t>
   </si>
 </sst>
 </file>
@@ -303,20 +306,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,78 +637,78 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" customWidth="1"/>
-    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>39</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>3</v>
+      <c r="B2" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>1</v>
       </c>
       <c r="D2" s="3">
         <v>4269</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="11">
         <v>5000</v>
       </c>
       <c r="F2" s="3">
         <f t="shared" ref="F2:F23" si="0">D2*E2</f>
         <v>21345000</v>
       </c>
-      <c r="H2" s="12" t="str">
+      <c r="H2" s="18" t="str">
         <f>A2</f>
         <v>Gimnasio</v>
       </c>
@@ -726,15 +729,15 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="20" t="s">
-        <v>4</v>
+      <c r="A3" s="18"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="16" t="s">
+        <v>2</v>
       </c>
       <c r="D3" s="3">
         <v>42</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="12">
         <f>100*E2</f>
         <v>500000</v>
       </c>
@@ -742,7 +745,7 @@
         <f t="shared" si="0"/>
         <v>21000000</v>
       </c>
-      <c r="H3" s="12"/>
+      <c r="H3" s="18"/>
       <c r="I3" s="7" t="str">
         <f>B4</f>
         <v>salas</v>
@@ -760,17 +763,17 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
-      <c r="B4" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>5</v>
+      <c r="A4" s="18"/>
+      <c r="B4" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>3</v>
       </c>
       <c r="D4" s="3">
         <v>83</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="12">
         <f>5*E2</f>
         <v>25000</v>
       </c>
@@ -778,7 +781,7 @@
         <f t="shared" si="0"/>
         <v>2075000</v>
       </c>
-      <c r="H4" s="12"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="7" t="str">
         <f>B7</f>
         <v>inventario</v>
@@ -796,22 +799,22 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="20" t="s">
-        <v>6</v>
+      <c r="A5" s="18"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="D5" s="3">
         <v>4060</v>
       </c>
-      <c r="E5" s="15">
+      <c r="E5" s="11">
         <v>10</v>
       </c>
       <c r="F5" s="3">
         <f t="shared" si="0"/>
         <v>40600</v>
       </c>
-      <c r="H5" s="12"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="7" t="str">
         <f>B11</f>
         <v>empleados</v>
@@ -829,15 +832,15 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="20" t="s">
-        <v>7</v>
+      <c r="A6" s="18"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="16" t="s">
+        <v>5</v>
       </c>
       <c r="D6" s="3">
         <v>30</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="12">
         <f>3*E4</f>
         <v>75000</v>
       </c>
@@ -845,7 +848,7 @@
         <f t="shared" si="0"/>
         <v>2250000</v>
       </c>
-      <c r="H6" s="12"/>
+      <c r="H6" s="18"/>
       <c r="I6" s="7" t="str">
         <f>B16</f>
         <v>huellas</v>
@@ -863,17 +866,17 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="12"/>
-      <c r="B7" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>8</v>
+      <c r="A7" s="18"/>
+      <c r="B7" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="D7" s="3">
         <v>60</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="12">
         <f>25*E4</f>
         <v>625000</v>
       </c>
@@ -881,7 +884,7 @@
         <f t="shared" si="0"/>
         <v>37500000</v>
       </c>
-      <c r="H7" s="12" t="str">
+      <c r="H7" s="18" t="str">
         <f>A17</f>
         <v>Cliente</v>
       </c>
@@ -902,22 +905,22 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="20" t="s">
-        <v>9</v>
+      <c r="A8" s="18"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="D8" s="3">
         <v>4050</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="12">
         <v>10</v>
       </c>
       <c r="F8" s="3">
         <f t="shared" si="0"/>
         <v>40500</v>
       </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="18"/>
       <c r="I8" s="7" t="str">
         <f>B20</f>
         <v>sesiones</v>
@@ -935,22 +938,22 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
-      <c r="B9" s="11"/>
-      <c r="C9" s="20" t="s">
-        <v>10</v>
+      <c r="A9" s="18"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="D9" s="3">
         <v>25</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="11">
         <v>5</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="H9" s="12"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="7" t="str">
         <f>B22</f>
         <v>historial</v>
@@ -968,15 +971,15 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="20" t="s">
-        <v>11</v>
+      <c r="A10" s="18"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="D10" s="3">
         <v>38</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="13">
         <f>E9*E7</f>
         <v>3125000</v>
       </c>
@@ -984,28 +987,30 @@
         <f t="shared" si="0"/>
         <v>118750000</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="H10" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
       <c r="L10" s="8">
         <v>512</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="12"/>
-      <c r="B11" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>20</v>
+      <c r="A11" s="18"/>
+      <c r="B11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>18</v>
       </c>
       <c r="D11" s="3">
         <v>130</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="11">
         <f>E4/5</f>
         <v>5000</v>
       </c>
@@ -1013,26 +1018,26 @@
         <f t="shared" si="0"/>
         <v>650000</v>
       </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
       <c r="L11" s="8">
         <v>512</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="20" t="s">
-        <v>18</v>
+      <c r="A12" s="18"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="D12" s="3">
         <v>31</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="11">
         <f>E17*3</f>
         <v>4500</v>
       </c>
@@ -1040,26 +1045,26 @@
         <f t="shared" si="0"/>
         <v>139500</v>
       </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
       <c r="L12" s="8">
         <v>2048</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="20" t="s">
-        <v>19</v>
+      <c r="A13" s="18"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="16" t="s">
+        <v>17</v>
       </c>
       <c r="D13" s="3">
         <v>4020</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="12">
         <f>3*E12</f>
         <v>13500</v>
       </c>
@@ -1067,26 +1072,26 @@
         <f t="shared" si="0"/>
         <v>54270000</v>
       </c>
-      <c r="H13" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
+      <c r="H13" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
       <c r="L13" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="20" t="s">
-        <v>21</v>
+      <c r="A14" s="18"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="16" t="s">
+        <v>19</v>
       </c>
       <c r="D14" s="3">
         <v>242</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="12">
         <f>E2+E11+E12</f>
         <v>14500</v>
       </c>
@@ -1096,15 +1101,15 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="12"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="20" t="s">
-        <v>23</v>
+      <c r="A15" s="18"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="16" t="s">
+        <v>21</v>
       </c>
       <c r="D15" s="3">
         <v>4060</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="11">
         <v>3</v>
       </c>
       <c r="F15" s="3">
@@ -1113,17 +1118,17 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>20</v>
       </c>
       <c r="D16" s="3">
         <v>10</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="12">
         <f>E14</f>
         <v>14500</v>
       </c>
@@ -1133,19 +1138,19 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>12</v>
+      <c r="A17" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="D17" s="3">
         <v>4276</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="12">
         <v>1500</v>
       </c>
       <c r="F17" s="3">
@@ -1154,15 +1159,15 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="20" t="s">
-        <v>17</v>
+      <c r="A18" s="18"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="16" t="s">
+        <v>15</v>
       </c>
       <c r="D18" s="3">
         <v>39</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="12">
         <f>1*E17</f>
         <v>1500</v>
       </c>
@@ -1172,15 +1177,15 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="12"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="20" t="s">
-        <v>14</v>
+      <c r="A19" s="18"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="D19" s="3">
         <v>68</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="12">
         <f>3*E17</f>
         <v>4500</v>
       </c>
@@ -1190,17 +1195,17 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>13</v>
+      <c r="A20" s="18"/>
+      <c r="B20" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="D20" s="3">
         <v>84</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="13">
         <f>5*52*E17</f>
         <v>390000</v>
       </c>
@@ -1210,15 +1215,15 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="20" t="s">
-        <v>28</v>
+      <c r="A21" s="18"/>
+      <c r="B21" s="20"/>
+      <c r="C21" s="16" t="s">
+        <v>25</v>
       </c>
       <c r="D21" s="3">
         <v>30</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="13">
         <f>E20*5</f>
         <v>1950000</v>
       </c>
@@ -1228,17 +1233,17 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>15</v>
+      <c r="A22" s="18"/>
+      <c r="B22" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="D22" s="3">
         <v>58</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="13">
         <f>1*E20</f>
         <v>390000</v>
       </c>
@@ -1248,15 +1253,15 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="12"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="20" t="s">
-        <v>16</v>
+      <c r="A23" s="18"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="16" t="s">
+        <v>14</v>
       </c>
       <c r="D23" s="3">
         <v>38</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="13">
         <f>120*E20</f>
         <v>46800000</v>
       </c>
@@ -1269,11 +1274,11 @@
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>24</v>
+      <c r="D25" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
@@ -1282,9 +1287,9 @@
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="16" t="s">
-        <v>46</v>
+      <c r="D26" s="20"/>
+      <c r="E26" s="12" t="s">
+        <v>41</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1293,10 +1298,10 @@
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
-      <c r="D27" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E27" s="17"/>
+      <c r="D27" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" s="13"/>
       <c r="F27" s="4">
         <f>SUM(J2, J3, J4, J5, F16, J7, J8, J9)</f>
         <v>2160785405</v>
@@ -1324,7 +1329,7 @@
       <c r="B32" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="17">
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A23"/>
@@ -1335,12 +1340,13 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="H10:H12"/>
     <mergeCell ref="H2:H6"/>
-    <mergeCell ref="H7:H12"/>
     <mergeCell ref="I10:K10"/>
     <mergeCell ref="I11:K11"/>
     <mergeCell ref="I12:K12"/>
-    <mergeCell ref="H13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RECURSOS/tablespaces.xlsx
+++ b/RECURSOS/tablespaces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\virtualGYM\RECURSOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E44533-49E6-4F30-ADAF-C88356E76DC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9A511E-CC7F-4529-9329-1EDF489FCFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6D28EBDB-7544-4C8E-B6B6-4D331AF1D67D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
   <si>
     <t>Tabla</t>
   </si>
@@ -148,12 +148,6 @@
     <t>tbs_blob</t>
   </si>
   <si>
-    <t>tbs_indices_blob</t>
-  </si>
-  <si>
-    <t>tbs_indices</t>
-  </si>
-  <si>
     <t>Registros</t>
   </si>
   <si>
@@ -169,9 +163,6 @@
     <t>Común</t>
   </si>
   <si>
-    <t>MB asignados</t>
-  </si>
-  <si>
     <t>B/registro</t>
   </si>
   <si>
@@ -182,6 +173,9 @@
   </si>
   <si>
     <t>GB</t>
+  </si>
+  <si>
+    <t>GB asignados</t>
   </si>
 </sst>
 </file>
@@ -290,7 +284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -316,10 +310,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,7 +634,7 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -663,13 +660,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="5" t="s">
@@ -679,20 +676,20 @@
         <v>27</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>28</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -708,7 +705,7 @@
         <f t="shared" ref="F2:F23" si="0">D2*E2</f>
         <v>21345000</v>
       </c>
-      <c r="H2" s="18" t="str">
+      <c r="H2" s="20" t="str">
         <f>A2</f>
         <v>Gimnasio</v>
       </c>
@@ -725,12 +722,12 @@
         <v>3.9436854422092438E-2</v>
       </c>
       <c r="L2" s="8">
-        <v>512</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="18"/>
-      <c r="B3" s="20"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
@@ -745,7 +742,7 @@
         <f t="shared" si="0"/>
         <v>21000000</v>
       </c>
-      <c r="H3" s="18"/>
+      <c r="H3" s="20"/>
       <c r="I3" s="7" t="str">
         <f>B4</f>
         <v>salas</v>
@@ -759,12 +756,12 @@
         <v>4.065781831741333E-3</v>
       </c>
       <c r="L3" s="8">
-        <v>512</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="18"/>
-      <c r="B4" s="20" t="s">
+      <c r="A4" s="20"/>
+      <c r="B4" s="19" t="s">
         <v>29</v>
       </c>
       <c r="C4" s="16" t="s">
@@ -781,7 +778,7 @@
         <f t="shared" si="0"/>
         <v>2075000</v>
       </c>
-      <c r="H4" s="18"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="7" t="str">
         <f>B7</f>
         <v>inventario</v>
@@ -795,12 +792,12 @@
         <v>0.14555698726326227</v>
       </c>
       <c r="L4" s="8">
-        <v>1024</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="16" t="s">
         <v>4</v>
       </c>
@@ -814,7 +811,7 @@
         <f t="shared" si="0"/>
         <v>40600</v>
       </c>
-      <c r="H5" s="18"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="7" t="str">
         <f>B11</f>
         <v>empleados</v>
@@ -828,12 +825,12 @@
         <v>5.455750972032547E-2</v>
       </c>
       <c r="L5" s="8">
-        <v>1024</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="16" t="s">
         <v>5</v>
       </c>
@@ -848,7 +845,7 @@
         <f t="shared" si="0"/>
         <v>2250000</v>
       </c>
-      <c r="H6" s="18"/>
+      <c r="H6" s="20"/>
       <c r="I6" s="7" t="str">
         <f>B16</f>
         <v>huellas</v>
@@ -862,12 +859,12 @@
         <v>1.3504177331924438E-4</v>
       </c>
       <c r="L6" s="8">
-        <v>512</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="18"/>
-      <c r="B7" s="20" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C7" s="16" t="s">
@@ -884,7 +881,7 @@
         <f t="shared" si="0"/>
         <v>37500000</v>
       </c>
-      <c r="H7" s="18" t="str">
+      <c r="H7" s="20" t="str">
         <f>A17</f>
         <v>Cliente</v>
       </c>
@@ -901,12 +898,12 @@
         <v>6.3129700720310211E-3</v>
       </c>
       <c r="L7" s="8">
-        <v>512</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="18"/>
-      <c r="B8" s="20"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="16" t="s">
         <v>7</v>
       </c>
@@ -920,7 +917,7 @@
         <f t="shared" si="0"/>
         <v>40500</v>
       </c>
-      <c r="H8" s="18"/>
+      <c r="H8" s="20"/>
       <c r="I8" s="7" t="str">
         <f>B20</f>
         <v>sesiones</v>
@@ -934,12 +931,12 @@
         <v>8.4992498159408569E-2</v>
       </c>
       <c r="L8" s="8">
-        <v>1024</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="18"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="16" t="s">
         <v>8</v>
       </c>
@@ -953,7 +950,7 @@
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="H9" s="18"/>
+      <c r="H9" s="20"/>
       <c r="I9" s="7" t="str">
         <f>B22</f>
         <v>historial</v>
@@ -967,12 +964,12 @@
         <v>1.6773305833339691</v>
       </c>
       <c r="L9" s="8">
-        <v>2048</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="18"/>
-      <c r="B10" s="20"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="16" t="s">
         <v>9</v>
       </c>
@@ -988,20 +985,20 @@
         <v>118750000</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
+        <v>41</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
       <c r="L10" s="8">
-        <v>512</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="20" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="19" t="s">
         <v>30</v>
       </c>
       <c r="C11" s="16" t="s">
@@ -1018,19 +1015,20 @@
         <f t="shared" si="0"/>
         <v>650000</v>
       </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="8">
-        <v>512</v>
+      <c r="H11" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="10">
+        <f>SUM(L2:L10)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="20"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="16" t="s">
         <v>16</v>
       </c>
@@ -1046,18 +1044,10 @@
         <v>139500</v>
       </c>
       <c r="H12" s="18"/>
-      <c r="I12" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="8">
-        <v>2048</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="18"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="16" t="s">
         <v>17</v>
       </c>
@@ -1072,19 +1062,10 @@
         <f t="shared" si="0"/>
         <v>54270000</v>
       </c>
-      <c r="H13" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="10">
-        <v>10</v>
-      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="20"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="16" t="s">
         <v>19</v>
       </c>
@@ -1101,8 +1082,8 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="18"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="16" t="s">
         <v>21</v>
       </c>
@@ -1118,7 +1099,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="2" t="s">
         <v>31</v>
       </c>
@@ -1138,10 +1119,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="16" t="s">
@@ -1159,8 +1140,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="18"/>
-      <c r="B18" s="20"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="16" t="s">
         <v>15</v>
       </c>
@@ -1177,8 +1158,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="18"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="16" t="s">
         <v>12</v>
       </c>
@@ -1195,8 +1176,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="18"/>
-      <c r="B20" s="20" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="19" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="16" t="s">
@@ -1215,8 +1196,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="18"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="16" t="s">
         <v>25</v>
       </c>
@@ -1233,8 +1214,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="20" t="s">
+      <c r="A22" s="20"/>
+      <c r="B22" s="19" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="16" t="s">
@@ -1253,8 +1234,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="18"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="16" t="s">
         <v>14</v>
       </c>
@@ -1274,8 +1255,8 @@
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="20" t="s">
-        <v>40</v>
+      <c r="D25" s="19" t="s">
+        <v>38</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>22</v>
@@ -1287,9 +1268,9 @@
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="20"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1299,7 +1280,7 @@
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="4">
@@ -1329,7 +1310,10 @@
       <c r="B32" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="13">
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="I10:K10"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A23"/>
@@ -1340,13 +1324,6 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RECURSOS/tablespaces.xlsx
+++ b/RECURSOS/tablespaces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\virtualGYM\RECURSOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9A511E-CC7F-4529-9329-1EDF489FCFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0125A67A-12B7-498A-A701-B706E7EF5476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6D28EBDB-7544-4C8E-B6B6-4D331AF1D67D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>Tabla</t>
   </si>
@@ -121,33 +121,6 @@
     <t>Tablespace</t>
   </si>
   <si>
-    <t>instalaciones</t>
-  </si>
-  <si>
-    <t>salas</t>
-  </si>
-  <si>
-    <t>empleados</t>
-  </si>
-  <si>
-    <t>huellas</t>
-  </si>
-  <si>
-    <t>inventario</t>
-  </si>
-  <si>
-    <t>historial</t>
-  </si>
-  <si>
-    <t>sesiones</t>
-  </si>
-  <si>
-    <t>clientes</t>
-  </si>
-  <si>
-    <t>tbs_blob</t>
-  </si>
-  <si>
     <t>Registros</t>
   </si>
   <si>
@@ -176,6 +149,36 @@
   </si>
   <si>
     <t>GB asignados</t>
+  </si>
+  <si>
+    <t>indices_ts</t>
+  </si>
+  <si>
+    <t>blob_ts</t>
+  </si>
+  <si>
+    <t>instalaciones_ts</t>
+  </si>
+  <si>
+    <t>salas_ts</t>
+  </si>
+  <si>
+    <t>inventario_ts</t>
+  </si>
+  <si>
+    <t>empleados_ts</t>
+  </si>
+  <si>
+    <t>huellas_ts</t>
+  </si>
+  <si>
+    <t>clientes_ts</t>
+  </si>
+  <si>
+    <t>sesiones_ts</t>
+  </si>
+  <si>
+    <t>historial_ts</t>
   </si>
 </sst>
 </file>
@@ -284,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -306,17 +309,14 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -634,18 +634,18 @@
   <dimension ref="A1:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="H12" sqref="H12:K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
@@ -660,13 +660,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G1" s="6"/>
       <c r="H1" s="5" t="s">
@@ -676,21 +676,21 @@
         <v>27</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>1</v>
@@ -705,13 +705,13 @@
         <f t="shared" ref="F2:F23" si="0">D2*E2</f>
         <v>21345000</v>
       </c>
-      <c r="H2" s="20" t="str">
+      <c r="H2" s="17" t="str">
         <f>A2</f>
         <v>Gimnasio</v>
       </c>
       <c r="I2" s="7" t="str">
         <f>B2</f>
-        <v>instalaciones</v>
+        <v>instalaciones_ts</v>
       </c>
       <c r="J2" s="3">
         <f>SUM(F2:F3)</f>
@@ -726,7 +726,7 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="19"/>
       <c r="C3" s="16" t="s">
         <v>2</v>
@@ -742,10 +742,10 @@
         <f t="shared" si="0"/>
         <v>21000000</v>
       </c>
-      <c r="H3" s="20"/>
+      <c r="H3" s="17"/>
       <c r="I3" s="7" t="str">
         <f>B4</f>
-        <v>salas</v>
+        <v>salas_ts</v>
       </c>
       <c r="J3" s="3">
         <f>SUM(F4:F6)</f>
@@ -760,9 +760,9 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="17"/>
       <c r="B4" s="19" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>3</v>
@@ -778,10 +778,10 @@
         <f t="shared" si="0"/>
         <v>2075000</v>
       </c>
-      <c r="H4" s="20"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="7" t="str">
         <f>B7</f>
-        <v>inventario</v>
+        <v>inventario_ts</v>
       </c>
       <c r="J4" s="3">
         <f>SUM(F7:F10)</f>
@@ -796,7 +796,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="17"/>
       <c r="B5" s="19"/>
       <c r="C5" s="16" t="s">
         <v>4</v>
@@ -811,10 +811,10 @@
         <f t="shared" si="0"/>
         <v>40600</v>
       </c>
-      <c r="H5" s="20"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="7" t="str">
         <f>B11</f>
-        <v>empleados</v>
+        <v>empleados_ts</v>
       </c>
       <c r="J5" s="3">
         <f>SUM(F11:F15)</f>
@@ -829,7 +829,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="17"/>
       <c r="B6" s="19"/>
       <c r="C6" s="16" t="s">
         <v>5</v>
@@ -845,10 +845,10 @@
         <f t="shared" si="0"/>
         <v>2250000</v>
       </c>
-      <c r="H6" s="20"/>
+      <c r="H6" s="17"/>
       <c r="I6" s="7" t="str">
         <f>B16</f>
-        <v>huellas</v>
+        <v>huellas_ts</v>
       </c>
       <c r="J6" s="3">
         <f>F16</f>
@@ -863,9 +863,9 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="19" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>6</v>
@@ -881,13 +881,13 @@
         <f t="shared" si="0"/>
         <v>37500000</v>
       </c>
-      <c r="H7" s="20" t="str">
+      <c r="H7" s="17" t="str">
         <f>A17</f>
         <v>Cliente</v>
       </c>
       <c r="I7" s="7" t="str">
         <f>B17</f>
-        <v>clientes</v>
+        <v>clientes_ts</v>
       </c>
       <c r="J7" s="3">
         <f>SUM(F17:F19)</f>
@@ -898,11 +898,11 @@
         <v>6.3129700720310211E-3</v>
       </c>
       <c r="L7" s="8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="19"/>
       <c r="C8" s="16" t="s">
         <v>7</v>
@@ -917,10 +917,10 @@
         <f t="shared" si="0"/>
         <v>40500</v>
       </c>
-      <c r="H8" s="20"/>
+      <c r="H8" s="17"/>
       <c r="I8" s="7" t="str">
         <f>B20</f>
-        <v>sesiones</v>
+        <v>sesiones_ts</v>
       </c>
       <c r="J8" s="3">
         <f>SUM(F20:F21)</f>
@@ -935,7 +935,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="19"/>
       <c r="C9" s="16" t="s">
         <v>8</v>
@@ -950,10 +950,10 @@
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="17"/>
       <c r="I9" s="7" t="str">
         <f>B22</f>
-        <v>historial</v>
+        <v>historial_ts</v>
       </c>
       <c r="J9" s="3">
         <f>SUM(F22:F23)</f>
@@ -968,7 +968,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="19"/>
       <c r="C10" s="16" t="s">
         <v>9</v>
@@ -984,22 +984,22 @@
         <f t="shared" si="0"/>
         <v>118750000</v>
       </c>
-      <c r="H10" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
+      <c r="H10" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
       <c r="L10" s="8">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="19" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>18</v>
@@ -1015,19 +1015,18 @@
         <f t="shared" si="0"/>
         <v>650000</v>
       </c>
-      <c r="H11" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="10">
-        <f>SUM(L2:L10)</f>
-        <v>10</v>
+      <c r="H11" s="17"/>
+      <c r="I11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="8">
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="19"/>
       <c r="C12" s="16" t="s">
         <v>16</v>
@@ -1043,10 +1042,19 @@
         <f t="shared" si="0"/>
         <v>139500</v>
       </c>
-      <c r="H12" s="18"/>
+      <c r="H12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="10">
+        <f>SUM(L2:L11)</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="17"/>
       <c r="B13" s="19"/>
       <c r="C13" s="16" t="s">
         <v>17</v>
@@ -1064,7 +1072,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="19"/>
       <c r="C14" s="16" t="s">
         <v>19</v>
@@ -1082,7 +1090,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="19"/>
       <c r="C15" s="16" t="s">
         <v>21</v>
@@ -1099,9 +1107,9 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="17"/>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>20</v>
@@ -1119,11 +1127,11 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>10</v>
@@ -1140,7 +1148,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="19"/>
       <c r="C18" s="16" t="s">
         <v>15</v>
@@ -1158,7 +1166,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="17"/>
       <c r="B19" s="19"/>
       <c r="C19" s="16" t="s">
         <v>12</v>
@@ -1176,9 +1184,9 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="19" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>11</v>
@@ -1196,7 +1204,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="19"/>
       <c r="C21" s="16" t="s">
         <v>25</v>
@@ -1214,9 +1222,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="19" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>13</v>
@@ -1234,7 +1242,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+      <c r="A23" s="17"/>
       <c r="B23" s="19"/>
       <c r="C23" s="16" t="s">
         <v>14</v>
@@ -1256,7 +1264,7 @@
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
       <c r="D25" s="19" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>22</v>
@@ -1270,7 +1278,7 @@
       <c r="C26" s="3"/>
       <c r="D26" s="19"/>
       <c r="E26" s="12" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
@@ -1280,7 +1288,7 @@
       <c r="B27" s="2"/>
       <c r="C27" s="3"/>
       <c r="D27" s="13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="4">
@@ -1310,10 +1318,10 @@
       <c r="B32" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="16">
     <mergeCell ref="H7:H9"/>
     <mergeCell ref="H2:H6"/>
-    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A23"/>
@@ -1324,6 +1332,9 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RECURSOS/tablespaces.xlsx
+++ b/RECURSOS/tablespaces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\virtualGYM\RECURSOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0125A67A-12B7-498A-A701-B706E7EF5476}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A61D1B1-CD65-4BA3-818D-1C6CE0744C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6D28EBDB-7544-4C8E-B6B6-4D331AF1D67D}"/>
   </bookViews>
@@ -145,12 +145,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>GB</t>
-  </si>
-  <si>
-    <t>GB asignados</t>
-  </si>
-  <si>
     <t>indices_ts</t>
   </si>
   <si>
@@ -160,9 +154,6 @@
     <t>instalaciones_ts</t>
   </si>
   <si>
-    <t>salas_ts</t>
-  </si>
-  <si>
     <t>inventario_ts</t>
   </si>
   <si>
@@ -179,6 +170,15 @@
   </si>
   <si>
     <t>historial_ts</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>MB asignados</t>
+  </si>
+  <si>
+    <t>MB maximos</t>
   </si>
 </sst>
 </file>
@@ -287,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -312,11 +312,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34FCEE63-D49C-433E-A269-686D46C23F67}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:K12"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,7 +655,7 @@
     <col min="12" max="12" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>23</v>
       </c>
@@ -679,18 +685,21 @@
         <v>35</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L1" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>40</v>
+      <c r="B2" s="21" t="s">
+        <v>38</v>
       </c>
       <c r="C2" s="16" t="s">
         <v>1</v>
@@ -705,29 +714,32 @@
         <f t="shared" ref="F2:F23" si="0">D2*E2</f>
         <v>21345000</v>
       </c>
-      <c r="H2" s="17" t="str">
+      <c r="H2" s="19" t="str">
         <f>A2</f>
         <v>Gimnasio</v>
       </c>
-      <c r="I2" s="7" t="str">
+      <c r="I2" s="22" t="str">
         <f>B2</f>
         <v>instalaciones_ts</v>
       </c>
       <c r="J2" s="3">
-        <f>SUM(F2:F3)</f>
-        <v>42345000</v>
+        <f>SUM(F2:F6)</f>
+        <v>46710600</v>
       </c>
       <c r="K2" s="3">
-        <f t="shared" ref="K2:K9" si="1">J2/1024/1024/1024</f>
-        <v>3.9436854422092438E-2</v>
+        <f>J2/1024/1024</f>
+        <v>44.546699523925781</v>
       </c>
       <c r="L2" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-      <c r="B3" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="M2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="19"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
@@ -742,28 +754,29 @@
         <f t="shared" si="0"/>
         <v>21000000</v>
       </c>
-      <c r="H3" s="17"/>
+      <c r="H3" s="19"/>
       <c r="I3" s="7" t="str">
-        <f>B4</f>
-        <v>salas_ts</v>
+        <f>B7</f>
+        <v>inventario_ts</v>
       </c>
       <c r="J3" s="3">
-        <f>SUM(F4:F6)</f>
-        <v>4365600</v>
+        <f>SUM(F7:F10)</f>
+        <v>156290625</v>
       </c>
       <c r="K3" s="3">
-        <f t="shared" si="1"/>
-        <v>4.065781831741333E-3</v>
+        <f t="shared" ref="K3:K8" si="1">J3/1024/1024</f>
+        <v>149.05035495758057</v>
       </c>
       <c r="L3" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-      <c r="B4" s="19" t="s">
-        <v>41</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="M3">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
@@ -778,26 +791,29 @@
         <f t="shared" si="0"/>
         <v>2075000</v>
       </c>
-      <c r="H4" s="17"/>
+      <c r="H4" s="19"/>
       <c r="I4" s="7" t="str">
-        <f>B7</f>
-        <v>inventario_ts</v>
+        <f>B11</f>
+        <v>empleados_ts</v>
       </c>
       <c r="J4" s="3">
-        <f>SUM(F7:F10)</f>
-        <v>156290625</v>
+        <f>SUM(F11:F15)</f>
+        <v>58580680</v>
       </c>
       <c r="K4" s="3">
         <f t="shared" si="1"/>
-        <v>0.14555698726326227</v>
+        <v>55.866889953613281</v>
       </c>
       <c r="L4" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-      <c r="B5" s="19"/>
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="19"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="16" t="s">
         <v>4</v>
       </c>
@@ -811,26 +827,29 @@
         <f t="shared" si="0"/>
         <v>40600</v>
       </c>
-      <c r="H5" s="17"/>
+      <c r="H5" s="19"/>
       <c r="I5" s="7" t="str">
-        <f>B11</f>
-        <v>empleados_ts</v>
+        <f>B16</f>
+        <v>huellas_ts</v>
       </c>
       <c r="J5" s="3">
-        <f>SUM(F11:F15)</f>
-        <v>58580680</v>
+        <f>F16</f>
+        <v>145000</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" si="1"/>
-        <v>5.455750972032547E-2</v>
+        <v>0.13828277587890625</v>
       </c>
       <c r="L5" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-      <c r="B6" s="19"/>
+        <v>50</v>
+      </c>
+      <c r="M5">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="19"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="16" t="s">
         <v>5</v>
       </c>
@@ -845,27 +864,33 @@
         <f t="shared" si="0"/>
         <v>2250000</v>
       </c>
-      <c r="H6" s="17"/>
+      <c r="H6" s="17" t="str">
+        <f>A17</f>
+        <v>Cliente</v>
+      </c>
       <c r="I6" s="7" t="str">
-        <f>B16</f>
-        <v>huellas_ts</v>
+        <f>B17</f>
+        <v>clientes_ts</v>
       </c>
       <c r="J6" s="3">
-        <f>F16</f>
-        <v>145000</v>
+        <f>SUM(F17:F19)</f>
+        <v>6778500</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="1"/>
-        <v>1.3504177331924438E-4</v>
+        <v>6.4644813537597656</v>
       </c>
       <c r="L6" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="19" t="s">
-        <v>42</v>
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="19"/>
+      <c r="B7" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>6</v>
@@ -881,29 +906,29 @@
         <f t="shared" si="0"/>
         <v>37500000</v>
       </c>
-      <c r="H7" s="17" t="str">
-        <f>A17</f>
-        <v>Cliente</v>
-      </c>
+      <c r="H7" s="17"/>
       <c r="I7" s="7" t="str">
-        <f>B17</f>
-        <v>clientes_ts</v>
+        <f>B20</f>
+        <v>sesiones_ts</v>
       </c>
       <c r="J7" s="3">
-        <f>SUM(F17:F19)</f>
-        <v>6778500</v>
+        <f>SUM(F20:F21)</f>
+        <v>91260000</v>
       </c>
       <c r="K7" s="3">
         <f t="shared" si="1"/>
-        <v>6.3129700720310211E-3</v>
+        <v>87.032318115234375</v>
       </c>
       <c r="L7" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="19"/>
+        <v>50</v>
+      </c>
+      <c r="M7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="19"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="16" t="s">
         <v>7</v>
       </c>
@@ -919,24 +944,27 @@
       </c>
       <c r="H8" s="17"/>
       <c r="I8" s="7" t="str">
-        <f>B20</f>
-        <v>sesiones_ts</v>
+        <f>B22</f>
+        <v>historial_ts</v>
       </c>
       <c r="J8" s="3">
-        <f>SUM(F20:F21)</f>
-        <v>91260000</v>
+        <f>SUM(F22:F23)</f>
+        <v>1801020000</v>
       </c>
       <c r="K8" s="3">
         <f t="shared" si="1"/>
-        <v>8.4992498159408569E-2</v>
+        <v>1717.5865173339844</v>
       </c>
       <c r="L8" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-      <c r="B9" s="19"/>
+        <v>100</v>
+      </c>
+      <c r="M8">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="19"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="16" t="s">
         <v>8</v>
       </c>
@@ -950,26 +978,24 @@
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="7" t="str">
-        <f>B22</f>
-        <v>historial_ts</v>
-      </c>
-      <c r="J9" s="3">
-        <f>SUM(F22:F23)</f>
-        <v>1801020000</v>
-      </c>
-      <c r="K9" s="3">
-        <f t="shared" si="1"/>
-        <v>1.6773305833339691</v>
-      </c>
+      <c r="H9" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
       <c r="L9" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="19"/>
+        <v>50</v>
+      </c>
+      <c r="M9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="19"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="16" t="s">
         <v>9</v>
       </c>
@@ -984,22 +1010,23 @@
         <f t="shared" si="0"/>
         <v>118750000</v>
       </c>
-      <c r="H10" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
       <c r="L10" s="8">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
-      <c r="B11" s="19" t="s">
-        <v>43</v>
+        <v>100</v>
+      </c>
+      <c r="M10">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="19"/>
+      <c r="B11" s="21" t="s">
+        <v>40</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>18</v>
@@ -1015,19 +1042,24 @@
         <f t="shared" si="0"/>
         <v>650000</v>
       </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="18" t="s">
-        <v>39</v>
-      </c>
+      <c r="H11" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
-      <c r="L11" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="19"/>
+      <c r="L11" s="10">
+        <f>SUM(L2:L10)</f>
+        <v>430</v>
+      </c>
+      <c r="M11">
+        <f>SUM(M2:M10)</f>
+        <v>6396</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="19"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="16" t="s">
         <v>16</v>
       </c>
@@ -1042,20 +1074,10 @@
         <f t="shared" si="0"/>
         <v>139500</v>
       </c>
-      <c r="H12" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="10">
-        <f>SUM(L2:L11)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="19"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="19"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="16" t="s">
         <v>17</v>
       </c>
@@ -1071,9 +1093,9 @@
         <v>54270000</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
-      <c r="B14" s="19"/>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="19"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="16" t="s">
         <v>19</v>
       </c>
@@ -1089,9 +1111,9 @@
         <v>3509000</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="17"/>
-      <c r="B15" s="19"/>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="19"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="16" t="s">
         <v>21</v>
       </c>
@@ -1106,10 +1128,10 @@
         <v>12180</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" s="19"/>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C16" s="16" t="s">
         <v>20</v>
@@ -1127,11 +1149,11 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>45</v>
+      <c r="B17" s="21" t="s">
+        <v>42</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>10</v>
@@ -1148,8 +1170,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="17"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="19"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="16" t="s">
         <v>15</v>
       </c>
@@ -1166,8 +1188,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="17"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="16" t="s">
         <v>12</v>
       </c>
@@ -1184,9 +1206,9 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="19" t="s">
-        <v>46</v>
+      <c r="A20" s="19"/>
+      <c r="B20" s="21" t="s">
+        <v>43</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>11</v>
@@ -1204,8 +1226,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="19"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="16" t="s">
         <v>25</v>
       </c>
@@ -1222,9 +1244,9 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="19" t="s">
-        <v>47</v>
+      <c r="A22" s="19"/>
+      <c r="B22" s="21" t="s">
+        <v>44</v>
       </c>
       <c r="C22" s="16" t="s">
         <v>13</v>
@@ -1242,8 +1264,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="17"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="19"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="16" t="s">
         <v>14</v>
       </c>
@@ -1263,7 +1285,7 @@
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="21" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="11" t="s">
@@ -1276,7 +1298,7 @@
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="19"/>
+      <c r="D26" s="21"/>
       <c r="E26" s="12" t="s">
         <v>30</v>
       </c>
@@ -1291,9 +1313,9 @@
         <v>31</v>
       </c>
       <c r="E27" s="13"/>
-      <c r="F27" s="4">
-        <f>SUM(J2, J3, J4, J5, F16, J7, J8, J9)</f>
-        <v>2160785405</v>
+      <c r="F27" s="4" t="e">
+        <f>SUM(J2,#REF!, J3, J4, F16, J6, J7, J8)</f>
+        <v>#REF!</v>
       </c>
       <c r="G27" s="4"/>
     </row>
@@ -1318,23 +1340,19 @@
       <c r="B32" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="H7:H9"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="I11:K11"/>
+  <mergeCells count="12">
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I10:K10"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A23"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="B4:B6"/>
     <mergeCell ref="B7:B10"/>
     <mergeCell ref="B11:B15"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="I9:K9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RECURSOS/tablespaces.xlsx
+++ b/RECURSOS/tablespaces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\virtualGYM\RECURSOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A61D1B1-CD65-4BA3-818D-1C6CE0744C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A305CB5-909C-4AF8-9873-4420CCA12F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6D28EBDB-7544-4C8E-B6B6-4D331AF1D67D}"/>
   </bookViews>
@@ -287,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -309,20 +309,17 @@
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -640,7 +637,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -695,10 +692,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -714,32 +711,24 @@
         <f t="shared" ref="F2:F23" si="0">D2*E2</f>
         <v>21345000</v>
       </c>
-      <c r="H2" s="19" t="str">
-        <f>A2</f>
-        <v>Gimnasio</v>
-      </c>
-      <c r="I2" s="22" t="str">
-        <f>B2</f>
-        <v>instalaciones_ts</v>
-      </c>
-      <c r="J2" s="3">
-        <f>SUM(F2:F6)</f>
-        <v>46710600</v>
-      </c>
-      <c r="K2" s="3">
-        <f>J2/1024/1024</f>
-        <v>44.546699523925781</v>
-      </c>
+      <c r="H2" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
       <c r="L2" s="8">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M2">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="19"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
@@ -754,29 +743,22 @@
         <f t="shared" si="0"/>
         <v>21000000</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="7" t="str">
-        <f>B7</f>
-        <v>inventario_ts</v>
-      </c>
-      <c r="J3" s="3">
-        <f>SUM(F7:F10)</f>
-        <v>156290625</v>
-      </c>
-      <c r="K3" s="3">
-        <f t="shared" ref="K3:K8" si="1">J3/1024/1024</f>
-        <v>149.05035495758057</v>
-      </c>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
       <c r="L3" s="8">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="M3">
-        <v>500</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="19"/>
       <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
@@ -791,29 +773,32 @@
         <f t="shared" si="0"/>
         <v>2075000</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="7" t="str">
-        <f>B11</f>
-        <v>empleados_ts</v>
+      <c r="H4" s="20" t="str">
+        <f>A2</f>
+        <v>Gimnasio</v>
+      </c>
+      <c r="I4" s="18" t="str">
+        <f>B2</f>
+        <v>instalaciones_ts</v>
       </c>
       <c r="J4" s="3">
-        <f>SUM(F11:F15)</f>
-        <v>58580680</v>
+        <f>SUM(F2:F6)</f>
+        <v>46710600</v>
       </c>
       <c r="K4" s="3">
-        <f t="shared" si="1"/>
-        <v>55.866889953613281</v>
+        <f>J4/1024/1024</f>
+        <v>44.546699523925781</v>
       </c>
       <c r="L4" s="8">
         <v>10</v>
       </c>
       <c r="M4">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="16" t="s">
         <v>4</v>
       </c>
@@ -827,18 +812,18 @@
         <f t="shared" si="0"/>
         <v>40600</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="20"/>
       <c r="I5" s="7" t="str">
-        <f>B16</f>
-        <v>huellas_ts</v>
+        <f>B7</f>
+        <v>inventario_ts</v>
       </c>
       <c r="J5" s="3">
-        <f>F16</f>
-        <v>145000</v>
+        <f>SUM(F7:F10)</f>
+        <v>156290625</v>
       </c>
       <c r="K5" s="3">
-        <f t="shared" si="1"/>
-        <v>0.13828277587890625</v>
+        <f t="shared" ref="K5:K10" si="1">J5/1024/1024</f>
+        <v>149.05035495758057</v>
       </c>
       <c r="L5" s="8">
         <v>50</v>
@@ -848,8 +833,8 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="19"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="19"/>
       <c r="C6" s="16" t="s">
         <v>5</v>
       </c>
@@ -864,32 +849,29 @@
         <f t="shared" si="0"/>
         <v>2250000</v>
       </c>
-      <c r="H6" s="17" t="str">
-        <f>A17</f>
-        <v>Cliente</v>
-      </c>
+      <c r="H6" s="20"/>
       <c r="I6" s="7" t="str">
-        <f>B17</f>
-        <v>clientes_ts</v>
+        <f>B11</f>
+        <v>empleados_ts</v>
       </c>
       <c r="J6" s="3">
-        <f>SUM(F17:F19)</f>
-        <v>6778500</v>
+        <f>SUM(F11:F15)</f>
+        <v>58580680</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="1"/>
-        <v>6.4644813537597656</v>
+        <v>55.866889953613281</v>
       </c>
       <c r="L6" s="8">
         <v>10</v>
       </c>
       <c r="M6">
-        <v>100</v>
+        <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="19"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="20"/>
+      <c r="B7" s="19" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="16" t="s">
@@ -906,86 +888,94 @@
         <f t="shared" si="0"/>
         <v>37500000</v>
       </c>
-      <c r="H7" s="17"/>
+      <c r="H7" s="20"/>
       <c r="I7" s="7" t="str">
+        <f>B16</f>
+        <v>huellas_ts</v>
+      </c>
+      <c r="J7" s="3">
+        <f>F16</f>
+        <v>145000</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.13828277587890625</v>
+      </c>
+      <c r="L7" s="8">
+        <v>50</v>
+      </c>
+      <c r="M7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4050</v>
+      </c>
+      <c r="E8" s="12">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>40500</v>
+      </c>
+      <c r="H8" s="20" t="str">
+        <f>A17</f>
+        <v>Cliente</v>
+      </c>
+      <c r="I8" s="7" t="str">
+        <f>B17</f>
+        <v>clientes_ts</v>
+      </c>
+      <c r="J8" s="3">
+        <f>SUM(F17:F19)</f>
+        <v>6778500</v>
+      </c>
+      <c r="K8" s="3">
+        <f t="shared" si="1"/>
+        <v>6.4644813537597656</v>
+      </c>
+      <c r="L8" s="8">
+        <v>10</v>
+      </c>
+      <c r="M8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3">
+        <v>25</v>
+      </c>
+      <c r="E9" s="11">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="7" t="str">
         <f>B20</f>
         <v>sesiones_ts</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J9" s="3">
         <f>SUM(F20:F21)</f>
         <v>91260000</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K9" s="3">
         <f t="shared" si="1"/>
         <v>87.032318115234375</v>
       </c>
-      <c r="L7" s="8">
-        <v>50</v>
-      </c>
-      <c r="M7">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="19"/>
-      <c r="B8" s="21"/>
-      <c r="C8" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4050</v>
-      </c>
-      <c r="E8" s="12">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>40500</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="7" t="str">
-        <f>B22</f>
-        <v>historial_ts</v>
-      </c>
-      <c r="J8" s="3">
-        <f>SUM(F22:F23)</f>
-        <v>1801020000</v>
-      </c>
-      <c r="K8" s="3">
-        <f t="shared" si="1"/>
-        <v>1717.5865173339844</v>
-      </c>
-      <c r="L8" s="8">
-        <v>100</v>
-      </c>
-      <c r="M8">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="19"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3">
-        <v>25</v>
-      </c>
-      <c r="E9" s="11">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="H9" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
       <c r="L9" s="8">
         <v>50</v>
       </c>
@@ -994,8 +984,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="19"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="16" t="s">
         <v>9</v>
       </c>
@@ -1010,12 +1000,19 @@
         <f t="shared" si="0"/>
         <v>118750000</v>
       </c>
-      <c r="H10" s="17"/>
-      <c r="I10" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="7" t="str">
+        <f>B22</f>
+        <v>historial_ts</v>
+      </c>
+      <c r="J10" s="3">
+        <f>SUM(F22:F23)</f>
+        <v>1801020000</v>
+      </c>
+      <c r="K10" s="3">
+        <f t="shared" si="1"/>
+        <v>1717.5865173339844</v>
+      </c>
       <c r="L10" s="8">
         <v>100</v>
       </c>
@@ -1024,8 +1021,8 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="19"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="16" t="s">
@@ -1042,24 +1039,24 @@
         <f t="shared" si="0"/>
         <v>650000</v>
       </c>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
       <c r="L11" s="10">
-        <f>SUM(L2:L10)</f>
+        <f ca="1">SUM(L4:L18)</f>
         <v>430</v>
       </c>
       <c r="M11">
-        <f>SUM(M2:M10)</f>
-        <v>6396</v>
+        <f ca="1">SUM(M4:M18)</f>
+        <v>7596</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="19"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="16" t="s">
         <v>16</v>
       </c>
@@ -1076,8 +1073,8 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="19"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="16" t="s">
         <v>17</v>
       </c>
@@ -1094,15 +1091,15 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="19"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D14" s="3">
         <v>242</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="11">
         <f>E2+E11+E12</f>
         <v>14500</v>
       </c>
@@ -1112,8 +1109,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="19"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="16" t="s">
         <v>21</v>
       </c>
@@ -1129,7 +1126,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
@@ -1149,10 +1146,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="19" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="16" t="s">
@@ -1170,8 +1167,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="16" t="s">
         <v>15</v>
       </c>
@@ -1188,8 +1185,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="19"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="16" t="s">
         <v>12</v>
       </c>
@@ -1206,8 +1203,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="19"/>
-      <c r="B20" s="21" t="s">
+      <c r="A20" s="20"/>
+      <c r="B20" s="19" t="s">
         <v>43</v>
       </c>
       <c r="C20" s="16" t="s">
@@ -1226,8 +1223,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="19"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="16" t="s">
         <v>25</v>
       </c>
@@ -1244,8 +1241,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="19"/>
-      <c r="B22" s="21" t="s">
+      <c r="A22" s="20"/>
+      <c r="B22" s="19" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="16" t="s">
@@ -1264,8 +1261,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="21"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="19"/>
       <c r="C23" s="16" t="s">
         <v>14</v>
       </c>
@@ -1285,7 +1282,7 @@
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="21" t="s">
+      <c r="D25" s="19" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="11" t="s">
@@ -1298,7 +1295,7 @@
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="21"/>
+      <c r="D26" s="19"/>
       <c r="E26" s="12" t="s">
         <v>30</v>
       </c>
@@ -1314,7 +1311,7 @@
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="4" t="e">
-        <f>SUM(J2,#REF!, J3, J4, F16, J6, J7, J8)</f>
+        <f>SUM(J4,#REF!, J5, J6, F16, J8, J9, J10)</f>
         <v>#REF!</v>
       </c>
       <c r="G27" s="4"/>
@@ -1340,10 +1337,9 @@
       <c r="B32" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
     <mergeCell ref="B2:B6"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I3:K3"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="A17:A23"/>
@@ -1352,7 +1348,10 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
-    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="H4:H7"/>
+    <mergeCell ref="H8:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/RECURSOS/tablespaces.xlsx
+++ b/RECURSOS/tablespaces.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\virtualGYM\RECURSOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A305CB5-909C-4AF8-9873-4420CCA12F62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6928889-1D9B-494C-9B9C-0AF52232B049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6D28EBDB-7544-4C8E-B6B6-4D331AF1D67D}"/>
   </bookViews>
@@ -316,10 +316,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -637,7 +637,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +692,7 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B2" s="19" t="s">
@@ -711,14 +711,14 @@
         <f t="shared" ref="F2:F23" si="0">D2*E2</f>
         <v>21345000</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
       <c r="L2" s="8">
         <v>50</v>
       </c>
@@ -727,7 +727,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="21"/>
       <c r="B3" s="19"/>
       <c r="C3" s="16" t="s">
         <v>2</v>
@@ -743,12 +743,12 @@
         <f t="shared" si="0"/>
         <v>21000000</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="21" t="s">
+      <c r="H3" s="21"/>
+      <c r="I3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
       <c r="L3" s="8">
         <v>100</v>
       </c>
@@ -757,7 +757,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="19"/>
       <c r="C4" s="16" t="s">
         <v>3</v>
@@ -773,7 +773,7 @@
         <f t="shared" si="0"/>
         <v>2075000</v>
       </c>
-      <c r="H4" s="20" t="str">
+      <c r="H4" s="21" t="str">
         <f>A2</f>
         <v>Gimnasio</v>
       </c>
@@ -797,7 +797,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="19"/>
       <c r="C5" s="16" t="s">
         <v>4</v>
@@ -812,7 +812,7 @@
         <f t="shared" si="0"/>
         <v>40600</v>
       </c>
-      <c r="H5" s="20"/>
+      <c r="H5" s="21"/>
       <c r="I5" s="7" t="str">
         <f>B7</f>
         <v>inventario_ts</v>
@@ -833,7 +833,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="19"/>
       <c r="C6" s="16" t="s">
         <v>5</v>
@@ -849,7 +849,7 @@
         <f t="shared" si="0"/>
         <v>2250000</v>
       </c>
-      <c r="H6" s="20"/>
+      <c r="H6" s="21"/>
       <c r="I6" s="7" t="str">
         <f>B11</f>
         <v>empleados_ts</v>
@@ -870,7 +870,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="19" t="s">
         <v>39</v>
       </c>
@@ -888,7 +888,7 @@
         <f t="shared" si="0"/>
         <v>37500000</v>
       </c>
-      <c r="H7" s="20"/>
+      <c r="H7" s="21"/>
       <c r="I7" s="7" t="str">
         <f>B16</f>
         <v>huellas_ts</v>
@@ -909,7 +909,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="19"/>
       <c r="C8" s="16" t="s">
         <v>7</v>
@@ -924,7 +924,7 @@
         <f t="shared" si="0"/>
         <v>40500</v>
       </c>
-      <c r="H8" s="20" t="str">
+      <c r="H8" s="21" t="str">
         <f>A17</f>
         <v>Cliente</v>
       </c>
@@ -948,7 +948,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="19"/>
       <c r="C9" s="16" t="s">
         <v>8</v>
@@ -963,7 +963,7 @@
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="H9" s="20"/>
+      <c r="H9" s="21"/>
       <c r="I9" s="7" t="str">
         <f>B20</f>
         <v>sesiones_ts</v>
@@ -984,7 +984,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="19"/>
       <c r="C10" s="16" t="s">
         <v>9</v>
@@ -1000,7 +1000,7 @@
         <f t="shared" si="0"/>
         <v>118750000</v>
       </c>
-      <c r="H10" s="20"/>
+      <c r="H10" s="21"/>
       <c r="I10" s="7" t="str">
         <f>B22</f>
         <v>historial_ts</v>
@@ -1021,7 +1021,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="19" t="s">
         <v>40</v>
       </c>
@@ -1046,16 +1046,16 @@
       <c r="J11" s="17"/>
       <c r="K11" s="17"/>
       <c r="L11" s="10">
-        <f ca="1">SUM(L4:L18)</f>
+        <f>SUM(L2:L10)</f>
         <v>430</v>
       </c>
       <c r="M11">
-        <f ca="1">SUM(M4:M18)</f>
+        <f>SUM(M2:M10)</f>
         <v>7596</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="19"/>
       <c r="C12" s="16" t="s">
         <v>16</v>
@@ -1073,7 +1073,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="19"/>
       <c r="C13" s="16" t="s">
         <v>17</v>
@@ -1091,7 +1091,7 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="19"/>
       <c r="C14" s="16" t="s">
         <v>19</v>
@@ -1109,7 +1109,7 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="19"/>
       <c r="C15" s="16" t="s">
         <v>21</v>
@@ -1126,7 +1126,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
@@ -1146,7 +1146,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="19" t="s">
@@ -1167,7 +1167,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="20"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="19"/>
       <c r="C18" s="16" t="s">
         <v>15</v>
@@ -1185,7 +1185,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="19"/>
       <c r="C19" s="16" t="s">
         <v>12</v>
@@ -1203,7 +1203,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="19" t="s">
         <v>43</v>
       </c>
@@ -1223,7 +1223,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="19"/>
       <c r="C21" s="16" t="s">
         <v>25</v>
@@ -1241,7 +1241,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="19" t="s">
         <v>44</v>
       </c>
@@ -1261,7 +1261,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="19"/>
       <c r="C23" s="16" t="s">
         <v>14</v>

--- a/RECURSOS/tablespaces.xlsx
+++ b/RECURSOS/tablespaces.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\GitHub\virtualGYM\RECURSOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6928889-1D9B-494C-9B9C-0AF52232B049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3919B6-FF21-43AF-8831-B087755ADE80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6D28EBDB-7544-4C8E-B6B6-4D331AF1D67D}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>Tabla</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>MB maximos</t>
+  </si>
+  <si>
+    <t>blob_indices_ts</t>
   </si>
 </sst>
 </file>
@@ -287,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -313,6 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -637,7 +641,7 @@
   <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,10 +696,10 @@
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C2" s="16" t="s">
@@ -711,14 +715,14 @@
         <f t="shared" ref="F2:F23" si="0">D2*E2</f>
         <v>21345000</v>
       </c>
-      <c r="H2" s="21" t="s">
+      <c r="H2" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
       <c r="L2" s="8">
         <v>50</v>
       </c>
@@ -727,8 +731,8 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="21"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="16" t="s">
         <v>2</v>
       </c>
@@ -743,22 +747,22 @@
         <f t="shared" si="0"/>
         <v>21000000</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
       <c r="L3" s="8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M3">
-        <v>2048</v>
+        <v>500</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="16" t="s">
         <v>3</v>
       </c>
@@ -773,68 +777,61 @@
         <f t="shared" si="0"/>
         <v>2075000</v>
       </c>
-      <c r="H4" s="21" t="str">
+      <c r="H4" s="22"/>
+      <c r="I4" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="8">
+        <v>100</v>
+      </c>
+      <c r="M4">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4060</v>
+      </c>
+      <c r="E5" s="11">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3">
+        <f t="shared" si="0"/>
+        <v>40600</v>
+      </c>
+      <c r="H5" s="22" t="str">
         <f>A2</f>
         <v>Gimnasio</v>
       </c>
-      <c r="I4" s="18" t="str">
+      <c r="I5" s="18" t="str">
         <f>B2</f>
         <v>instalaciones_ts</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J5" s="3">
         <f>SUM(F2:F6)</f>
         <v>46710600</v>
       </c>
-      <c r="K4" s="3">
-        <f>J4/1024/1024</f>
+      <c r="K5" s="3">
+        <f>J5/1024/1024</f>
         <v>44.546699523925781</v>
       </c>
-      <c r="L4" s="8">
+      <c r="L5" s="8">
         <v>10</v>
-      </c>
-      <c r="M4">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="3">
-        <v>4060</v>
-      </c>
-      <c r="E5" s="11">
-        <v>10</v>
-      </c>
-      <c r="F5" s="3">
-        <f t="shared" si="0"/>
-        <v>40600</v>
-      </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="7" t="str">
-        <f>B7</f>
-        <v>inventario_ts</v>
-      </c>
-      <c r="J5" s="3">
-        <f>SUM(F7:F10)</f>
-        <v>156290625</v>
-      </c>
-      <c r="K5" s="3">
-        <f t="shared" ref="K5:K10" si="1">J5/1024/1024</f>
-        <v>149.05035495758057</v>
-      </c>
-      <c r="L5" s="8">
-        <v>50</v>
       </c>
       <c r="M5">
         <v>500</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="16" t="s">
         <v>5</v>
       </c>
@@ -849,29 +846,29 @@
         <f t="shared" si="0"/>
         <v>2250000</v>
       </c>
-      <c r="H6" s="21"/>
+      <c r="H6" s="22"/>
       <c r="I6" s="7" t="str">
-        <f>B11</f>
-        <v>empleados_ts</v>
+        <f>B7</f>
+        <v>inventario_ts</v>
       </c>
       <c r="J6" s="3">
-        <f>SUM(F11:F15)</f>
-        <v>58580680</v>
+        <f>SUM(F7:F10)</f>
+        <v>156290625</v>
       </c>
       <c r="K6" s="3">
-        <f t="shared" si="1"/>
-        <v>55.866889953613281</v>
+        <f t="shared" ref="K6:K11" si="1">J6/1024/1024</f>
+        <v>149.05035495758057</v>
       </c>
       <c r="L6" s="8">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M6">
         <v>500</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="19" t="s">
+      <c r="A7" s="22"/>
+      <c r="B7" s="20" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="16" t="s">
@@ -888,104 +885,104 @@
         <f t="shared" si="0"/>
         <v>37500000</v>
       </c>
-      <c r="H7" s="21"/>
+      <c r="H7" s="22"/>
       <c r="I7" s="7" t="str">
+        <f>B11</f>
+        <v>empleados_ts</v>
+      </c>
+      <c r="J7" s="3">
+        <f>SUM(F11:F15)</f>
+        <v>58580680</v>
+      </c>
+      <c r="K7" s="3">
+        <f t="shared" si="1"/>
+        <v>55.866889953613281</v>
+      </c>
+      <c r="L7" s="8">
+        <v>10</v>
+      </c>
+      <c r="M7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="3">
+        <v>4050</v>
+      </c>
+      <c r="E8" s="12">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>40500</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="7" t="str">
         <f>B16</f>
         <v>huellas_ts</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J8" s="3">
         <f>F16</f>
         <v>145000</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K8" s="3">
         <f t="shared" si="1"/>
         <v>0.13828277587890625</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L8" s="8">
         <v>50</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="3">
-        <v>4050</v>
-      </c>
-      <c r="E8" s="12">
-        <v>10</v>
-      </c>
-      <c r="F8" s="3">
-        <f t="shared" si="0"/>
-        <v>40500</v>
-      </c>
-      <c r="H8" s="21" t="str">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="3">
+        <v>25</v>
+      </c>
+      <c r="E9" s="11">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="H9" s="22" t="str">
         <f>A17</f>
         <v>Cliente</v>
       </c>
-      <c r="I8" s="7" t="str">
+      <c r="I9" s="7" t="str">
         <f>B17</f>
         <v>clientes_ts</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J9" s="3">
         <f>SUM(F17:F19)</f>
         <v>6778500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K9" s="3">
         <f t="shared" si="1"/>
         <v>6.4644813537597656</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L9" s="8">
         <v>10</v>
-      </c>
-      <c r="M8">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3">
-        <v>25</v>
-      </c>
-      <c r="E9" s="11">
-        <v>5</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>125</v>
-      </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="7" t="str">
-        <f>B20</f>
-        <v>sesiones_ts</v>
-      </c>
-      <c r="J9" s="3">
-        <f>SUM(F20:F21)</f>
-        <v>91260000</v>
-      </c>
-      <c r="K9" s="3">
-        <f t="shared" si="1"/>
-        <v>87.032318115234375</v>
-      </c>
-      <c r="L9" s="8">
-        <v>50</v>
       </c>
       <c r="M9">
         <v>500</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="16" t="s">
         <v>9</v>
       </c>
@@ -1000,29 +997,29 @@
         <f t="shared" si="0"/>
         <v>118750000</v>
       </c>
-      <c r="H10" s="21"/>
+      <c r="H10" s="22"/>
       <c r="I10" s="7" t="str">
-        <f>B22</f>
-        <v>historial_ts</v>
+        <f>B20</f>
+        <v>sesiones_ts</v>
       </c>
       <c r="J10" s="3">
-        <f>SUM(F22:F23)</f>
-        <v>1801020000</v>
+        <f>SUM(F20:F21)</f>
+        <v>91260000</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="1"/>
-        <v>1717.5865173339844</v>
+        <v>87.032318115234375</v>
       </c>
       <c r="L10" s="8">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="M10">
-        <v>2048</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
-      <c r="B11" s="19" t="s">
+      <c r="A11" s="22"/>
+      <c r="B11" s="20" t="s">
         <v>40</v>
       </c>
       <c r="C11" s="16" t="s">
@@ -1039,24 +1036,29 @@
         <f t="shared" si="0"/>
         <v>650000</v>
       </c>
-      <c r="H11" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="10">
-        <f>SUM(L2:L10)</f>
-        <v>430</v>
+      <c r="H11" s="22"/>
+      <c r="I11" s="7" t="str">
+        <f>B22</f>
+        <v>historial_ts</v>
+      </c>
+      <c r="J11" s="3">
+        <f>SUM(F22:F23)</f>
+        <v>1801020000</v>
+      </c>
+      <c r="K11" s="3">
+        <f t="shared" si="1"/>
+        <v>1717.5865173339844</v>
+      </c>
+      <c r="L11" s="8">
+        <v>100</v>
       </c>
       <c r="M11">
-        <f>SUM(M2:M10)</f>
-        <v>7596</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="16" t="s">
         <v>16</v>
       </c>
@@ -1071,10 +1073,24 @@
         <f t="shared" si="0"/>
         <v>139500</v>
       </c>
+      <c r="H12" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="10">
+        <f>SUM(L2:L11)</f>
+        <v>480</v>
+      </c>
+      <c r="M12">
+        <f>SUM(M2:M11)</f>
+        <v>8096</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="16" t="s">
         <v>17</v>
       </c>
@@ -1091,8 +1107,8 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="16" t="s">
         <v>19</v>
       </c>
@@ -1109,8 +1125,8 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="16" t="s">
         <v>21</v>
       </c>
@@ -1126,7 +1142,7 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="2" t="s">
         <v>41</v>
       </c>
@@ -1136,7 +1152,7 @@
       <c r="D16" s="3">
         <v>10</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <f>E14</f>
         <v>14500</v>
       </c>
@@ -1146,10 +1162,10 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="20" t="s">
         <v>42</v>
       </c>
       <c r="C17" s="16" t="s">
@@ -1167,8 +1183,8 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="16" t="s">
         <v>15</v>
       </c>
@@ -1185,8 +1201,8 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="21"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="16" t="s">
         <v>12</v>
       </c>
@@ -1203,8 +1219,8 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="19" t="s">
+      <c r="A20" s="22"/>
+      <c r="B20" s="20" t="s">
         <v>43</v>
       </c>
       <c r="C20" s="16" t="s">
@@ -1223,8 +1239,8 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="16" t="s">
         <v>25</v>
       </c>
@@ -1241,8 +1257,8 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="19" t="s">
+      <c r="A22" s="22"/>
+      <c r="B22" s="20" t="s">
         <v>44</v>
       </c>
       <c r="C22" s="16" t="s">
@@ -1261,8 +1277,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="19"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="16" t="s">
         <v>14</v>
       </c>
@@ -1282,7 +1298,7 @@
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="3"/>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="20" t="s">
         <v>29</v>
       </c>
       <c r="E25" s="11" t="s">
@@ -1295,7 +1311,7 @@
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="3"/>
-      <c r="D26" s="19"/>
+      <c r="D26" s="20"/>
       <c r="E26" s="12" t="s">
         <v>30</v>
       </c>
@@ -1311,7 +1327,7 @@
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="4" t="e">
-        <f>SUM(J4,#REF!, J5, J6, F16, J8, J9, J10)</f>
+        <f>SUM(J5,#REF!, J6, J7, F16, J9, J10, J11)</f>
         <v>#REF!</v>
       </c>
       <c r="G27" s="4"/>
@@ -1338,6 +1354,7 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H9:H11"/>
     <mergeCell ref="B2:B6"/>
     <mergeCell ref="I3:K3"/>
     <mergeCell ref="D25:D26"/>
@@ -1349,9 +1366,8 @@
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="I2:K2"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="H4:H7"/>
-    <mergeCell ref="H8:H10"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="H5:H8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
